--- a/Symphony/2021/Others/Price List/Price List - 02.10.2021.xlsx
+++ b/Symphony/2021/Others/Price List/Price List - 02.10.2021.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="124">
   <si>
     <t>Model Name</t>
   </si>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t>3000mAh</t>
-  </si>
-  <si>
-    <t>6.09''</t>
   </si>
   <si>
     <t>3500mAh</t>
@@ -269,9 +266,6 @@
     <t xml:space="preserve">SN </t>
   </si>
   <si>
-    <t>L250i</t>
-  </si>
-  <si>
     <t>C20A(2GB+32GB)</t>
   </si>
   <si>
@@ -326,9 +320,6 @@
     <t>i67  (2GB+16GB)</t>
   </si>
   <si>
-    <t>i99  (2GB+16GB)</t>
-  </si>
-  <si>
     <t xml:space="preserve">13MP+2MP+2MP+8MP   </t>
   </si>
   <si>
@@ -407,7 +398,19 @@
     <t>2.4"</t>
   </si>
   <si>
-    <t>Last Updated on: 02/10/2021</t>
+    <t>Last Updated on: 05/10/2021</t>
+  </si>
+  <si>
+    <t>L33</t>
+  </si>
+  <si>
+    <t>i69 (2GB+16GB)</t>
+  </si>
+  <si>
+    <t>5.7''</t>
+  </si>
+  <si>
+    <t>35000mAh</t>
   </si>
 </sst>
 </file>
@@ -761,12 +764,6 @@
     <xf numFmtId="43" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -777,6 +774,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -812,6 +815,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -819,15 +831,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3227,8 +3230,8 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J55" sqref="J55"/>
+      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3245,7 +3248,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -3256,7 +3259,7 @@
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B2" s="38"/>
       <c r="C2" s="38"/>
@@ -3266,19 +3269,19 @@
       <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
+      <c r="A3" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="45"/>
     </row>
     <row r="4" spans="1:7" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
@@ -3327,7 +3330,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="7">
         <v>1060</v>
@@ -3336,7 +3339,7 @@
         <v>1140</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>20</v>
@@ -3373,7 +3376,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C8" s="7">
         <v>1020</v>
@@ -3442,7 +3445,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C11" s="7">
         <v>1060</v>
@@ -3511,7 +3514,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C14" s="7">
         <v>1250</v>
@@ -3534,7 +3537,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C15" s="7">
         <v>1460</v>
@@ -3580,7 +3583,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C17" s="7">
         <v>1190</v>
@@ -3603,7 +3606,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C18" s="7">
         <v>1200</v>
@@ -3644,41 +3647,31 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>16</v>
       </c>
-      <c r="B20" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1210</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1299</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="31"/>
+    </row>
+    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>17</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="C21" s="7">
-        <v>1250</v>
+        <v>1210</v>
       </c>
       <c r="D21" s="7">
-        <v>1350</v>
+        <v>1299</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>23</v>
@@ -3694,48 +3687,58 @@
       <c r="A22" s="19">
         <v>18</v>
       </c>
-      <c r="B22" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
+      <c r="B22" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1250</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1350</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="23" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>19</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
-      <c r="E23" s="27"/>
+      <c r="E23" s="31"/>
       <c r="F23" s="25"/>
-      <c r="G23" s="27"/>
-    </row>
-    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="31"/>
+    </row>
+    <row r="24" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>20</v>
       </c>
-      <c r="B24" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="7">
-        <v>1250</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1340</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="5" t="s">
+      <c r="B24" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="24">
+        <v>1200</v>
+      </c>
+      <c r="D24" s="24">
+        <v>1299</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="G24" s="30" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3744,13 +3747,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C25" s="7">
-        <v>1360</v>
+        <v>1250</v>
       </c>
       <c r="D25" s="7">
-        <v>1440</v>
+        <v>1340</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>23</v>
@@ -3766,22 +3769,22 @@
       <c r="A26" s="19">
         <v>22</v>
       </c>
-      <c r="B26" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26" s="7">
-        <v>1300</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1399</v>
-      </c>
-      <c r="E26" s="19" t="s">
+      <c r="B26" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="24">
+        <v>1280</v>
+      </c>
+      <c r="D26" s="24">
+        <v>1380</v>
+      </c>
+      <c r="E26" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="19" t="s">
+      <c r="F26" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="30" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3790,19 +3793,19 @@
         <v>23</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="6">
-        <v>1340</v>
-      </c>
-      <c r="D27" s="6">
-        <v>1430</v>
+        <v>97</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1300</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1399</v>
       </c>
       <c r="E27" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G27" s="19" t="s">
         <v>19</v>
@@ -3813,19 +3816,19 @@
         <v>24</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="7">
+        <v>48</v>
+      </c>
+      <c r="C28" s="6">
         <v>1340</v>
       </c>
-      <c r="D28" s="7">
-        <v>1450</v>
+      <c r="D28" s="6">
+        <v>1430</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G28" s="19" t="s">
         <v>19</v>
@@ -3836,7 +3839,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C29" s="7">
         <v>1400</v>
@@ -3845,10 +3848,10 @@
         <v>1499</v>
       </c>
       <c r="E29" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="G29" s="19" t="s">
         <v>19</v>
@@ -3859,7 +3862,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="7">
         <v>1440</v>
@@ -3868,7 +3871,7 @@
         <v>1540</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>27</v>
@@ -3882,7 +3885,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C31" s="7">
         <v>1430</v>
@@ -3891,7 +3894,7 @@
         <v>1550</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>20</v>
@@ -3914,7 +3917,7 @@
         <v>1420</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>26</v>
@@ -3937,7 +3940,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C34" s="7">
         <v>7430</v>
@@ -3946,13 +3949,13 @@
         <v>7990</v>
       </c>
       <c r="E34" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" s="19" t="s">
         <v>42</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G34" s="19" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3960,7 +3963,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C35" s="7">
         <v>7240</v>
@@ -3969,13 +3972,13 @@
         <v>7790</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3983,7 +3986,7 @@
         <v>3</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C36" s="7">
         <v>4840</v>
@@ -3992,13 +3995,13 @@
         <v>5190</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4006,7 +4009,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C37" s="7">
         <v>5290</v>
@@ -4015,13 +4018,13 @@
         <v>5690</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4029,7 +4032,7 @@
         <v>5</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C38" s="7">
         <v>5750</v>
@@ -4038,36 +4041,36 @@
         <v>6190</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="19">
         <v>6</v>
       </c>
-      <c r="B39" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C39" s="7">
-        <v>6570</v>
-      </c>
-      <c r="D39" s="7">
+      <c r="B39" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="24">
+        <v>6500</v>
+      </c>
+      <c r="D39" s="24">
         <v>6990</v>
       </c>
-      <c r="E39" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G39" s="19" t="s">
-        <v>39</v>
+      <c r="E39" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="G39" s="31" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4075,7 +4078,7 @@
         <v>7</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C40" s="7">
         <v>3890</v>
@@ -4084,13 +4087,13 @@
         <v>4190</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4098,7 +4101,7 @@
         <v>8</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C41" s="7">
         <v>7350</v>
@@ -4107,13 +4110,13 @@
         <v>7990</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4121,7 +4124,7 @@
         <v>9</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C42" s="7">
         <v>7430</v>
@@ -4130,13 +4133,13 @@
         <v>7990</v>
       </c>
       <c r="E42" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F42" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="G42" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4144,7 +4147,7 @@
         <v>10</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C43" s="7">
         <v>9300</v>
@@ -4153,13 +4156,13 @@
         <v>9790</v>
       </c>
       <c r="E43" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="G43" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4167,7 +4170,7 @@
         <v>11</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C44" s="7">
         <v>10130</v>
@@ -4176,13 +4179,13 @@
         <v>10890</v>
       </c>
       <c r="E44" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="G44" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4190,7 +4193,7 @@
         <v>12</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C45" s="7">
         <v>7980</v>
@@ -4199,36 +4202,36 @@
         <v>8590</v>
       </c>
       <c r="E45" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F45" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="G45" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="19">
         <v>13</v>
       </c>
-      <c r="B46" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="C46" s="29">
+      <c r="B46" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" s="27">
         <v>8300</v>
       </c>
-      <c r="D46" s="29">
+      <c r="D46" s="27">
         <v>8790</v>
       </c>
-      <c r="E46" s="30" t="s">
+      <c r="E46" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="F46" s="31" t="s">
-        <v>36</v>
-      </c>
       <c r="G46" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4236,7 +4239,7 @@
         <v>14</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C47" s="7">
         <v>9290</v>
@@ -4245,13 +4248,13 @@
         <v>9990</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4259,7 +4262,7 @@
         <v>15</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C48" s="7">
         <v>10230</v>
@@ -4268,13 +4271,13 @@
         <v>10990</v>
       </c>
       <c r="E48" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G48" s="19" t="s">
         <v>57</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G48" s="19" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4282,7 +4285,7 @@
         <v>16</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C49" s="7">
         <v>9290</v>
@@ -4291,27 +4294,27 @@
         <v>9990</v>
       </c>
       <c r="E49" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G49" s="19" t="s">
         <v>54</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G49" s="19" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="33" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B50" s="34"/>
       <c r="C50" s="39" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D50" s="39"/>
       <c r="E50" s="39"/>
       <c r="F50" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G50" s="39"/>
     </row>
@@ -4375,46 +4378,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
+      <c r="A1" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
+      <c r="A2" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
     </row>
     <row r="3" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
+      <c r="A3" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>60</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -4424,7 +4427,7 @@
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -4434,10 +4437,10 @@
     </row>
     <row r="7" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>66</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>67</v>
       </c>
       <c r="C7" s="11">
         <v>14540</v>
@@ -4448,10 +4451,10 @@
     </row>
     <row r="8" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="11">
         <v>8490</v>
@@ -4463,10 +4466,10 @@
     </row>
     <row r="9" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="11">
         <v>10320</v>
@@ -4478,10 +4481,10 @@
     </row>
     <row r="10" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>68</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>69</v>
       </c>
       <c r="C10" s="11">
         <v>11200</v>
@@ -4494,10 +4497,10 @@
     </row>
     <row r="11" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="11">
         <v>13070</v>
@@ -4510,10 +4513,10 @@
     </row>
     <row r="12" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" s="11">
         <v>13990</v>
@@ -4538,10 +4541,10 @@
     </row>
     <row r="15" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="11">
         <v>21270</v>
@@ -4550,10 +4553,10 @@
     </row>
     <row r="16" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="C16" s="11">
         <v>25890</v>
@@ -4566,10 +4569,10 @@
     </row>
     <row r="17" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>72</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>73</v>
       </c>
       <c r="C17" s="11">
         <v>12240</v>

--- a/Symphony/2021/Others/Price List/Price List - 02.10.2021.xlsx
+++ b/Symphony/2021/Others/Price List/Price List - 02.10.2021.xlsx
@@ -398,9 +398,6 @@
     <t>2.4"</t>
   </si>
   <si>
-    <t>Last Updated on: 05/10/2021</t>
-  </si>
-  <si>
     <t>L33</t>
   </si>
   <si>
@@ -411,6 +408,9 @@
   </si>
   <si>
     <t>35000mAh</t>
+  </si>
+  <si>
+    <t>Last Updated on: 06/10/2021</t>
   </si>
 </sst>
 </file>
@@ -3230,8 +3230,8 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28:XFD28"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3270,7 +3270,7 @@
     </row>
     <row r="3" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
@@ -3652,7 +3652,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
@@ -4055,7 +4055,7 @@
         <v>6</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C39" s="24">
         <v>6500</v>
@@ -4064,10 +4064,10 @@
         <v>6990</v>
       </c>
       <c r="E39" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="F39" s="25" t="s">
         <v>122</v>
-      </c>
-      <c r="F39" s="25" t="s">
-        <v>123</v>
       </c>
       <c r="G39" s="31" t="s">
         <v>110</v>

--- a/Symphony/2021/Others/Price List/Price List - 02.10.2021.xlsx
+++ b/Symphony/2021/Others/Price List/Price List - 02.10.2021.xlsx
@@ -3230,8 +3230,8 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M16" sqref="M16"/>
+      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Symphony/2021/Others/Price List/Price List - 02.10.2021.xlsx
+++ b/Symphony/2021/Others/Price List/Price List - 02.10.2021.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="124">
   <si>
     <t>Model Name</t>
   </si>
@@ -410,7 +410,7 @@
     <t>35000mAh</t>
   </si>
   <si>
-    <t>Last Updated on: 06/10/2021</t>
+    <t>Last Updated on: 12/10/2021</t>
   </si>
 </sst>
 </file>
@@ -3230,8 +3230,8 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N30" sqref="N30"/>
+      <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3713,11 +3713,21 @@
       <c r="B23" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="31"/>
+      <c r="C23" s="24">
+        <v>1240</v>
+      </c>
+      <c r="D23" s="24">
+        <v>1330</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="24" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19">

--- a/Symphony/2021/Others/Price List/Price List - 02.10.2021.xlsx
+++ b/Symphony/2021/Others/Price List/Price List - 02.10.2021.xlsx
@@ -410,7 +410,7 @@
     <t>35000mAh</t>
   </si>
   <si>
-    <t>Last Updated on: 12/10/2021</t>
+    <t>Last Updated on: 21/10/2021</t>
   </si>
 </sst>
 </file>
@@ -3230,8 +3230,8 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3656,9 +3656,9 @@
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
-      <c r="E20" s="31"/>
+      <c r="E20" s="30"/>
       <c r="F20" s="25"/>
-      <c r="G20" s="31"/>
+      <c r="G20" s="30"/>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
@@ -3710,22 +3710,22 @@
       <c r="A23" s="19">
         <v>19</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="7">
         <v>1240</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="7">
         <v>1330</v>
       </c>
-      <c r="E23" s="31" t="s">
+      <c r="E23" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="25" t="s">
+      <c r="F23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="31" t="s">
+      <c r="G23" s="19" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3733,22 +3733,22 @@
       <c r="A24" s="19">
         <v>20</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="7">
         <v>1200</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="7">
         <v>1299</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="E24" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="30" t="s">
+      <c r="G24" s="19" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3779,22 +3779,22 @@
       <c r="A26" s="19">
         <v>22</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="7">
         <v>1280</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D26" s="7">
         <v>1380</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="25" t="s">
+      <c r="F26" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="30" t="s">
+      <c r="G26" s="19" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4018,22 +4018,22 @@
       <c r="A37" s="19">
         <v>4</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="24">
         <v>5290</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="24">
         <v>5690</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="E37" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="G37" s="19" t="s">
+      <c r="G37" s="31" t="s">
         <v>110</v>
       </c>
     </row>
@@ -4073,13 +4073,13 @@
       <c r="D39" s="24">
         <v>6990</v>
       </c>
-      <c r="E39" s="31" t="s">
+      <c r="E39" s="30" t="s">
         <v>121</v>
       </c>
       <c r="F39" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="G39" s="31" t="s">
+      <c r="G39" s="30" t="s">
         <v>110</v>
       </c>
     </row>

--- a/Symphony/2021/Others/Price List/Price List - 02.10.2021.xlsx
+++ b/Symphony/2021/Others/Price List/Price List - 02.10.2021.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="115">
   <si>
     <t>Model Name</t>
   </si>
@@ -104,9 +104,6 @@
     <t>3000mAh</t>
   </si>
   <si>
-    <t>3500mAh</t>
-  </si>
-  <si>
     <t>2.8''</t>
   </si>
   <si>
@@ -116,12 +113,6 @@
     <t>4000mAh</t>
   </si>
   <si>
-    <t>5"</t>
-  </si>
-  <si>
-    <t>6.09"</t>
-  </si>
-  <si>
     <t>6.52"</t>
   </si>
   <si>
@@ -134,12 +125,6 @@
     <t>8MP+8MP</t>
   </si>
   <si>
-    <t>8MP+2MP+13MP</t>
-  </si>
-  <si>
-    <t>5MP+2MP</t>
-  </si>
-  <si>
     <t>8MP+2MP+5MP+13MP</t>
   </si>
   <si>
@@ -156,12 +141,6 @@
   </si>
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
-  </si>
-  <si>
-    <t>B67</t>
-  </si>
-  <si>
-    <t>1.77''</t>
   </si>
   <si>
     <t>L140</t>
@@ -296,9 +275,6 @@
     <t>Z40  (3GB+32GB)</t>
   </si>
   <si>
-    <t>Z32  (3GB+32GB)</t>
-  </si>
-  <si>
     <t>Z30Pro (4GB+64GB)</t>
   </si>
   <si>
@@ -314,9 +290,6 @@
     <t>ATOM_2  (2GB+32GB)</t>
   </si>
   <si>
-    <t>Z12  (2GB+16GB)</t>
-  </si>
-  <si>
     <t>i67  (2GB+16GB)</t>
   </si>
   <si>
@@ -335,9 +308,6 @@
     <t>L135</t>
   </si>
   <si>
-    <t>2200mAh</t>
-  </si>
-  <si>
     <t>D48</t>
   </si>
   <si>
@@ -377,9 +347,6 @@
     <t>i32  (1GB+16GB)</t>
   </si>
   <si>
-    <t>V105  (1GB+8GB)</t>
-  </si>
-  <si>
     <t>D76</t>
   </si>
   <si>
@@ -410,7 +377,13 @@
     <t>35000mAh</t>
   </si>
   <si>
-    <t>Last Updated on: 21/10/2021</t>
+    <t>Last Updated on: 27/10/2021</t>
+  </si>
+  <si>
+    <t>DSR Rasel Ahmed</t>
+  </si>
+  <si>
+    <t>01717271613</t>
   </si>
 </sst>
 </file>
@@ -695,7 +668,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -755,15 +728,6 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -774,12 +738,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -821,9 +779,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -832,6 +787,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -857,13 +818,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>204721</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>41124</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>387219</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>91626</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -881,7 +842,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="204721" y="11347299"/>
+          <a:off x="204721" y="10432899"/>
           <a:ext cx="4754498" cy="260052"/>
           <a:chOff x="249" y="249"/>
           <a:chExt cx="272" cy="258"/>
@@ -3227,11 +3188,11 @@
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
+      <pane ySplit="4" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3247,41 +3208,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="A1" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
+      <c r="A2" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="45"/>
+        <v>112</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="39"/>
+      <c r="G3" s="44" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="4" spans="1:7" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
@@ -3325,21 +3290,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
         <v>2</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="C6" s="7">
-        <v>1060</v>
+        <v>1010</v>
       </c>
       <c r="D6" s="7">
-        <v>1140</v>
+        <v>1090</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>20</v>
@@ -3353,13 +3318,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C7" s="7">
-        <v>1010</v>
+        <v>1020</v>
       </c>
       <c r="D7" s="7">
-        <v>1090</v>
+        <v>1099</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>17</v>
@@ -3376,19 +3341,19 @@
         <v>4</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="C8" s="7">
-        <v>1020</v>
+        <v>1150</v>
       </c>
       <c r="D8" s="7">
-        <v>1099</v>
+        <v>1240</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>19</v>
@@ -3399,19 +3364,19 @@
         <v>5</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" s="7">
-        <v>1150</v>
+        <v>1160</v>
       </c>
       <c r="D9" s="7">
-        <v>1240</v>
+        <v>1250</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>19</v>
@@ -3422,13 +3387,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="C10" s="7">
-        <v>1160</v>
+        <v>1060</v>
       </c>
       <c r="D10" s="7">
-        <v>1250</v>
+        <v>1150</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>17</v>
@@ -3445,19 +3410,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="C11" s="7">
-        <v>1060</v>
+        <v>1210</v>
       </c>
       <c r="D11" s="7">
-        <v>1150</v>
+        <v>1290</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G11" s="19" t="s">
         <v>19</v>
@@ -3468,10 +3433,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" s="7">
-        <v>1210</v>
+        <v>1200</v>
       </c>
       <c r="D12" s="7">
         <v>1290</v>
@@ -3480,7 +3445,7 @@
         <v>23</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>19</v>
@@ -3491,13 +3456,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="C13" s="7">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="D13" s="7">
-        <v>1290</v>
+        <v>1350</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>23</v>
@@ -3514,22 +3479,22 @@
         <v>10</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C14" s="7">
-        <v>1250</v>
+        <v>1460</v>
       </c>
       <c r="D14" s="7">
-        <v>1350</v>
+        <v>1570</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3537,13 +3502,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="C15" s="7">
-        <v>1460</v>
+        <v>1130</v>
       </c>
       <c r="D15" s="7">
-        <v>1570</v>
+        <v>1199</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>23</v>
@@ -3552,7 +3517,7 @@
         <v>20</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3560,13 +3525,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="C16" s="7">
-        <v>1130</v>
+        <v>1190</v>
       </c>
       <c r="D16" s="7">
-        <v>1199</v>
+        <v>1290</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>23</v>
@@ -3583,13 +3548,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="C17" s="7">
-        <v>1190</v>
+        <v>1200</v>
       </c>
       <c r="D17" s="7">
-        <v>1290</v>
+        <v>1299</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>23</v>
@@ -3601,18 +3566,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>14</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="C18" s="7">
-        <v>1200</v>
+        <v>1095</v>
       </c>
       <c r="D18" s="7">
-        <v>1299</v>
+        <v>1170</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>23</v>
@@ -3629,49 +3594,59 @@
         <v>15</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="C19" s="7">
-        <v>1095</v>
+        <v>1260</v>
       </c>
       <c r="D19" s="7">
-        <v>1170</v>
+        <v>1360</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>16</v>
       </c>
-      <c r="B20" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="30"/>
-    </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1210</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1299</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>17</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="C21" s="7">
-        <v>1210</v>
+        <v>1250</v>
       </c>
       <c r="D21" s="7">
-        <v>1299</v>
+        <v>1350</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>23</v>
@@ -3688,13 +3663,13 @@
         <v>18</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C22" s="7">
-        <v>1250</v>
+        <v>1240</v>
       </c>
       <c r="D22" s="7">
-        <v>1350</v>
+        <v>1330</v>
       </c>
       <c r="E22" s="19" t="s">
         <v>23</v>
@@ -3711,16 +3686,16 @@
         <v>19</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C23" s="7">
-        <v>1240</v>
+        <v>1200</v>
       </c>
       <c r="D23" s="7">
-        <v>1330</v>
+        <v>1299</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>22</v>
@@ -3729,21 +3704,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>20</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="C24" s="7">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="D24" s="7">
-        <v>1299</v>
+        <v>1340</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>22</v>
@@ -3757,13 +3732,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>1250</v>
+        <v>1280</v>
       </c>
       <c r="D25" s="7">
-        <v>1340</v>
+        <v>1380</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>23</v>
@@ -3780,19 +3755,19 @@
         <v>22</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="C26" s="7">
-        <v>1280</v>
+        <v>1300</v>
       </c>
       <c r="D26" s="7">
-        <v>1380</v>
+        <v>1399</v>
       </c>
       <c r="E26" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G26" s="19" t="s">
         <v>19</v>
@@ -3803,19 +3778,19 @@
         <v>23</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1300</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1399</v>
+        <v>41</v>
+      </c>
+      <c r="C27" s="6">
+        <v>1340</v>
+      </c>
+      <c r="D27" s="6">
+        <v>1430</v>
       </c>
       <c r="E27" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G27" s="19" t="s">
         <v>19</v>
@@ -3826,19 +3801,19 @@
         <v>24</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="6">
-        <v>1340</v>
-      </c>
-      <c r="D28" s="6">
-        <v>1430</v>
+        <v>87</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1400</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1499</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G28" s="19" t="s">
         <v>19</v>
@@ -3849,19 +3824,19 @@
         <v>25</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="C29" s="7">
-        <v>1400</v>
+        <v>1440</v>
       </c>
       <c r="D29" s="7">
-        <v>1499</v>
+        <v>1540</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G29" s="19" t="s">
         <v>19</v>
@@ -3872,19 +3847,19 @@
         <v>26</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="C30" s="7">
-        <v>1440</v>
+        <v>1430</v>
       </c>
       <c r="D30" s="7">
-        <v>1540</v>
+        <v>1550</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G30" s="19" t="s">
         <v>19</v>
@@ -3895,476 +3870,385 @@
         <v>27</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="C31" s="7">
-        <v>1430</v>
+        <v>1330</v>
       </c>
       <c r="D31" s="7">
-        <v>1550</v>
+        <v>1420</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G31" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="19">
-        <v>28</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="7">
-        <v>1330</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1420</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" s="19" t="s">
-        <v>19</v>
-      </c>
+      <c r="A32" s="35"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="37"/>
     </row>
     <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="42"/>
+      <c r="A33" s="19">
+        <v>1</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="7">
+        <v>7430</v>
+      </c>
+      <c r="D33" s="7">
+        <v>7990</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C34" s="7">
-        <v>7430</v>
+        <v>7240</v>
       </c>
       <c r="D34" s="7">
-        <v>7990</v>
+        <v>7790</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C35" s="7">
-        <v>7240</v>
+        <v>4840</v>
       </c>
       <c r="D35" s="7">
-        <v>7790</v>
+        <v>5190</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C36" s="7">
-        <v>4840</v>
+        <v>5290</v>
       </c>
       <c r="D36" s="7">
-        <v>5190</v>
+        <v>5690</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19">
-        <v>4</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="C37" s="24">
-        <v>5290</v>
-      </c>
-      <c r="D37" s="24">
-        <v>5690</v>
-      </c>
-      <c r="E37" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="F37" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G37" s="31" t="s">
-        <v>110</v>
+        <v>5</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="7">
+        <v>5750</v>
+      </c>
+      <c r="D37" s="7">
+        <v>6190</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="C38" s="7">
-        <v>5750</v>
+        <v>6500</v>
       </c>
       <c r="D38" s="7">
-        <v>6190</v>
+        <v>6990</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="19">
-        <v>6</v>
-      </c>
-      <c r="B39" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="C39" s="24">
-        <v>6500</v>
-      </c>
-      <c r="D39" s="24">
-        <v>6990</v>
-      </c>
-      <c r="E39" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="F39" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="G39" s="30" t="s">
-        <v>110</v>
+        <v>7</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="7">
+        <v>7430</v>
+      </c>
+      <c r="D39" s="7">
+        <v>7990</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="C40" s="7">
-        <v>3890</v>
+        <v>9300</v>
       </c>
       <c r="D40" s="7">
-        <v>4190</v>
+        <v>9790</v>
       </c>
       <c r="E40" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F40" s="5" t="s">
-        <v>98</v>
-      </c>
       <c r="G40" s="19" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C41" s="7">
-        <v>7350</v>
+        <v>10130</v>
       </c>
       <c r="D41" s="7">
-        <v>7990</v>
+        <v>10890</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="19">
-        <v>9</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" s="7">
-        <v>7430</v>
-      </c>
-      <c r="D42" s="7">
-        <v>7990</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="24">
+        <v>8300</v>
+      </c>
+      <c r="D42" s="24">
+        <v>8790</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" s="26" t="s">
+        <v>32</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C43" s="7">
-        <v>9300</v>
+        <v>9290</v>
       </c>
       <c r="D43" s="7">
-        <v>9790</v>
+        <v>9990</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C44" s="7">
-        <v>10130</v>
+        <v>10230</v>
       </c>
       <c r="D44" s="7">
-        <v>10890</v>
+        <v>10990</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C45" s="7">
-        <v>7980</v>
+        <v>9290</v>
       </c>
       <c r="D45" s="7">
-        <v>8590</v>
+        <v>9990</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="19">
-        <v>13</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="C46" s="27">
-        <v>8300</v>
-      </c>
-      <c r="D46" s="27">
-        <v>8790</v>
-      </c>
-      <c r="E46" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="F46" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="G46" s="19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="19">
-        <v>14</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C47" s="7">
-        <v>9290</v>
-      </c>
-      <c r="D47" s="7">
-        <v>9990</v>
-      </c>
-      <c r="E47" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G47" s="19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="19">
-        <v>15</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C48" s="7">
-        <v>10230</v>
-      </c>
-      <c r="D48" s="7">
-        <v>10990</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G48" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="19">
-        <v>16</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C49" s="7">
-        <v>9290</v>
-      </c>
-      <c r="D49" s="7">
-        <v>9990</v>
-      </c>
-      <c r="E49" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G49" s="19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="B50" s="34"/>
-      <c r="C50" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="G50" s="39"/>
-    </row>
-    <row r="51" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="35"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="32"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="29"/>
+      <c r="C46" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G46" s="34"/>
+    </row>
+    <row r="47" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="30"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="27"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
     </row>
   </sheetData>
   <sortState ref="A29:H53">
     <sortCondition ref="A29"/>
   </sortState>
-  <mergeCells count="8">
-    <mergeCell ref="A52:G52"/>
-    <mergeCell ref="A50:B51"/>
+  <mergeCells count="9">
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A46:B47"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="C50:E51"/>
-    <mergeCell ref="F50:G51"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="C46:E47"/>
+    <mergeCell ref="F46:G47"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="84" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="91" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A50" numberStoredAsText="1"/>
+    <ignoredError sqref="A46 G3" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -4388,46 +4272,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
+      <c r="A1" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
+      <c r="A2" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
     </row>
     <row r="3" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
+      <c r="A3" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -4437,7 +4321,7 @@
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -4447,10 +4331,10 @@
     </row>
     <row r="7" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C7" s="11">
         <v>14540</v>
@@ -4461,10 +4345,10 @@
     </row>
     <row r="8" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C8" s="11">
         <v>8490</v>
@@ -4476,10 +4360,10 @@
     </row>
     <row r="9" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C9" s="11">
         <v>10320</v>
@@ -4491,10 +4375,10 @@
     </row>
     <row r="10" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C10" s="11">
         <v>11200</v>
@@ -4507,10 +4391,10 @@
     </row>
     <row r="11" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C11" s="11">
         <v>13070</v>
@@ -4523,10 +4407,10 @@
     </row>
     <row r="12" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C12" s="11">
         <v>13990</v>
@@ -4551,10 +4435,10 @@
     </row>
     <row r="15" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C15" s="11">
         <v>21270</v>
@@ -4563,10 +4447,10 @@
     </row>
     <row r="16" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C16" s="11">
         <v>25890</v>
@@ -4579,10 +4463,10 @@
     </row>
     <row r="17" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C17" s="11">
         <v>12240</v>

--- a/Symphony/2021/Others/Price List/Price List - 02.10.2021.xlsx
+++ b/Symphony/2021/Others/Price List/Price List - 02.10.2021.xlsx
@@ -377,13 +377,13 @@
     <t>35000mAh</t>
   </si>
   <si>
-    <t>Last Updated on: 27/10/2021</t>
-  </si>
-  <si>
-    <t>DSR Rasel Ahmed</t>
-  </si>
-  <si>
-    <t>01717271613</t>
+    <t>Manger</t>
+  </si>
+  <si>
+    <t>01715116767</t>
+  </si>
+  <si>
+    <t>Last Updated on: 31/10/2021</t>
   </si>
 </sst>
 </file>
@@ -740,6 +740,9 @@
     <xf numFmtId="43" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -773,6 +776,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -787,12 +793,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3191,8 +3191,8 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K43" sqref="K43"/>
+      <pane ySplit="4" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3208,40 +3208,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="38" t="s">
+      <c r="F3" s="41"/>
+      <c r="G3" s="27" t="s">
         <v>113</v>
-      </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="44" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3889,13 +3889,13 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="37"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="38"/>
     </row>
     <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
@@ -4197,37 +4197,37 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="29"/>
-      <c r="C46" s="34" t="s">
+      <c r="B46" s="30"/>
+      <c r="C46" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34" t="s">
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="G46" s="34"/>
+      <c r="G46" s="35"/>
     </row>
     <row r="47" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="30"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
+      <c r="A47" s="31"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="27"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
     </row>
   </sheetData>
   <sortState ref="A29:H53">
@@ -4272,28 +4272,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
     </row>
     <row r="3" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">

--- a/Symphony/2021/Others/Price List/Price List - 02.10.2021.xlsx
+++ b/Symphony/2021/Others/Price List/Price List - 02.10.2021.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="113">
   <si>
     <t>Model Name</t>
   </si>
@@ -377,13 +377,7 @@
     <t>35000mAh</t>
   </si>
   <si>
-    <t>Manger</t>
-  </si>
-  <si>
-    <t>01715116767</t>
-  </si>
-  <si>
-    <t>Last Updated on: 31/10/2021</t>
+    <t>Last Updated on: 03/11/2021</t>
   </si>
 </sst>
 </file>
@@ -668,7 +662,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -792,6 +786,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3190,9 +3187,9 @@
   </sheetPr>
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K46" sqref="K46"/>
+      <selection pane="bottomLeft" activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3231,18 +3228,14 @@
     </row>
     <row r="3" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
       <c r="D3" s="39"/>
-      <c r="E3" s="40" t="s">
-        <v>112</v>
-      </c>
+      <c r="E3" s="40"/>
       <c r="F3" s="41"/>
-      <c r="G3" s="27" t="s">
-        <v>113</v>
-      </c>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:7" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -3298,10 +3291,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="7">
-        <v>1010</v>
+        <v>970</v>
       </c>
       <c r="D6" s="7">
-        <v>1090</v>
+        <v>1050</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>17</v>
@@ -3343,12 +3336,8 @@
       <c r="B8" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="7">
-        <v>1150</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1240</v>
-      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="19" t="s">
         <v>17</v>
       </c>
@@ -4248,7 +4237,7 @@
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup scale="91" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A46 G3" numberStoredAsText="1"/>
+    <ignoredError sqref="A46" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
